--- a/output/金門縣/2020_政黨票_各村里得票數_金門縣.xlsx
+++ b/output/金門縣/2020_政黨票_各村里得票數_金門縣.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC19"/>
+  <dimension ref="A1:AC49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -734,91 +734,91 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D6" t="n">
-        <v>27</v>
+        <v>303</v>
       </c>
       <c r="E6" t="n">
-        <v>196</v>
+        <v>1352</v>
       </c>
       <c r="F6" t="n">
-        <v>22</v>
+        <v>189</v>
       </c>
       <c r="G6" t="n">
-        <v>73</v>
+        <v>811</v>
       </c>
       <c r="H6" t="n">
-        <v>311</v>
+        <v>2638</v>
       </c>
       <c r="I6" t="n">
-        <v>201</v>
+        <v>1376</v>
       </c>
       <c r="J6" t="n">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="K6" t="n">
-        <v>4134</v>
+        <v>30885</v>
       </c>
       <c r="L6" t="n">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="N6" t="n">
-        <v>104</v>
+        <v>765</v>
       </c>
       <c r="O6" t="n">
-        <v>3</v>
+        <v>144</v>
       </c>
       <c r="P6" t="n">
-        <v>425</v>
+        <v>3846</v>
       </c>
       <c r="Q6" t="n">
-        <v>524</v>
+        <v>4188</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="T6" t="n">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="U6" t="n">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="V6" t="n">
-        <v>6092</v>
+        <v>47015</v>
       </c>
       <c r="W6" t="n">
-        <v>179</v>
+        <v>1450</v>
       </c>
       <c r="X6" t="n">
-        <v>6271</v>
+        <v>48465</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>6271</v>
+        <v>48465</v>
       </c>
       <c r="AA6" t="n">
-        <v>4670</v>
+        <v>72278</v>
       </c>
       <c r="AB6" t="n">
-        <v>10941</v>
+        <v>120743</v>
       </c>
       <c r="AC6" t="n">
-        <v>57.32</v>
+        <v>40.14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">　南竿鄉</t>
+          <t xml:space="preserve">　金城鎮</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -826,384 +826,384 @@
         <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="E7" t="n">
-        <v>112</v>
+        <v>444</v>
       </c>
       <c r="F7" t="n">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="G7" t="n">
-        <v>46</v>
+        <v>228</v>
       </c>
       <c r="H7" t="n">
-        <v>214</v>
+        <v>768</v>
       </c>
       <c r="I7" t="n">
-        <v>129</v>
+        <v>533</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="K7" t="n">
-        <v>2483</v>
+        <v>9856</v>
       </c>
       <c r="L7" t="n">
+        <v>17</v>
+      </c>
+      <c r="M7" t="n">
+        <v>17</v>
+      </c>
+      <c r="N7" t="n">
+        <v>266</v>
+      </c>
+      <c r="O7" t="n">
+        <v>47</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1213</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1262</v>
+      </c>
+      <c r="R7" t="n">
+        <v>10</v>
+      </c>
+      <c r="S7" t="n">
         <v>7</v>
       </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="n">
-        <v>68</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>267</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>320</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2</v>
-      </c>
       <c r="T7" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="U7" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="V7" t="n">
-        <v>3715</v>
+        <v>14928</v>
       </c>
       <c r="W7" t="n">
-        <v>112</v>
+        <v>367</v>
       </c>
       <c r="X7" t="n">
-        <v>3827</v>
+        <v>15295</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>3827</v>
+        <v>15295</v>
       </c>
       <c r="AA7" t="n">
-        <v>2431</v>
+        <v>21805</v>
       </c>
       <c r="AB7" t="n">
-        <v>6258</v>
+        <v>37100</v>
       </c>
       <c r="AC7" t="n">
-        <v>61.15</v>
+        <v>41.23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>介壽村</t>
+          <t>東門里</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E8" t="n">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="F8" t="n">
+        <v>9</v>
+      </c>
+      <c r="G8" t="n">
+        <v>32</v>
+      </c>
+      <c r="H8" t="n">
+        <v>83</v>
+      </c>
+      <c r="I8" t="n">
+        <v>100</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1314</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>30</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4</v>
+      </c>
+      <c r="P8" t="n">
+        <v>166</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>201</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>6</v>
       </c>
-      <c r="G8" t="n">
-        <v>11</v>
-      </c>
-      <c r="H8" t="n">
-        <v>82</v>
-      </c>
-      <c r="I8" t="n">
-        <v>39</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>781</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3</v>
-      </c>
-      <c r="M8" t="n">
-        <v>2</v>
-      </c>
-      <c r="N8" t="n">
-        <v>26</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>72</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>115</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>4</v>
-      </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V8" t="n">
-        <v>1186</v>
+        <v>2037</v>
       </c>
       <c r="W8" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="X8" t="n">
-        <v>1222</v>
+        <v>2082</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>1222</v>
+        <v>2082</v>
       </c>
       <c r="AA8" t="n">
-        <v>696</v>
+        <v>2709</v>
       </c>
       <c r="AB8" t="n">
-        <v>1918</v>
+        <v>4791</v>
       </c>
       <c r="AC8" t="n">
-        <v>63.71</v>
+        <v>43.46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>復興村、福沃村</t>
+          <t>西門里</t>
         </is>
       </c>
       <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>19</v>
+      </c>
+      <c r="E9" t="n">
+        <v>121</v>
+      </c>
+      <c r="F9" t="n">
+        <v>18</v>
+      </c>
+      <c r="G9" t="n">
+        <v>60</v>
+      </c>
+      <c r="H9" t="n">
+        <v>234</v>
+      </c>
+      <c r="I9" t="n">
+        <v>147</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2618</v>
+      </c>
+      <c r="L9" t="n">
         <v>4</v>
       </c>
-      <c r="D9" t="n">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="n">
+        <v>87</v>
+      </c>
+      <c r="O9" t="n">
+        <v>14</v>
+      </c>
+      <c r="P9" t="n">
+        <v>275</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>336</v>
+      </c>
+      <c r="R9" t="n">
         <v>4</v>
       </c>
-      <c r="E9" t="n">
-        <v>36</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>15</v>
-      </c>
-      <c r="H9" t="n">
-        <v>58</v>
-      </c>
-      <c r="I9" t="n">
-        <v>43</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>644</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>2</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="n">
+        <v>4</v>
+      </c>
+      <c r="U9" t="n">
         <v>7</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>72</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>86</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2</v>
-      </c>
-      <c r="U9" t="n">
-        <v>3</v>
-      </c>
       <c r="V9" t="n">
-        <v>979</v>
+        <v>3963</v>
       </c>
       <c r="W9" t="n">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="X9" t="n">
-        <v>1007</v>
+        <v>4044</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>1007</v>
+        <v>4044</v>
       </c>
       <c r="AA9" t="n">
-        <v>715</v>
+        <v>5435</v>
       </c>
       <c r="AB9" t="n">
-        <v>1722</v>
+        <v>9479</v>
       </c>
       <c r="AC9" t="n">
-        <v>58.48</v>
+        <v>42.66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>清水村、珠螺村</t>
+          <t>南門里</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="F10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G10" t="n">
+        <v>41</v>
+      </c>
+      <c r="H10" t="n">
+        <v>123</v>
+      </c>
+      <c r="I10" t="n">
+        <v>82</v>
+      </c>
+      <c r="J10" t="n">
         <v>6</v>
       </c>
-      <c r="G10" t="n">
-        <v>10</v>
-      </c>
-      <c r="H10" t="n">
-        <v>34</v>
-      </c>
-      <c r="I10" t="n">
-        <v>18</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
       <c r="K10" t="n">
-        <v>426</v>
+        <v>1407</v>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N10" t="n">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P10" t="n">
-        <v>75</v>
+        <v>173</v>
       </c>
       <c r="Q10" t="n">
-        <v>61</v>
+        <v>158</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>1</v>
       </c>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>676</v>
+        <v>2153</v>
       </c>
       <c r="W10" t="n">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="X10" t="n">
-        <v>697</v>
+        <v>2207</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>697</v>
+        <v>2207</v>
       </c>
       <c r="AA10" t="n">
-        <v>420</v>
+        <v>3060</v>
       </c>
       <c r="AB10" t="n">
-        <v>1117</v>
+        <v>5267</v>
       </c>
       <c r="AC10" t="n">
-        <v>62.4</v>
+        <v>41.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>仁愛村、津沙村、馬祖村、四維村</t>
+          <t>北門里</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G11" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H11" t="n">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="I11" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>632</v>
+        <v>1148</v>
       </c>
       <c r="L11" t="n">
         <v>1</v>
@@ -1212,194 +1212,194 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11" t="n">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="Q11" t="n">
-        <v>58</v>
+        <v>166</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>874</v>
+        <v>1697</v>
       </c>
       <c r="W11" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="X11" t="n">
-        <v>901</v>
+        <v>1732</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>901</v>
+        <v>1732</v>
       </c>
       <c r="AA11" t="n">
-        <v>600</v>
+        <v>2441</v>
       </c>
       <c r="AB11" t="n">
-        <v>1501</v>
+        <v>4173</v>
       </c>
       <c r="AC11" t="n">
-        <v>60.03</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">　北竿鄉</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>古城里</t>
+        </is>
+      </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G12" t="n">
         <v>13</v>
       </c>
       <c r="H12" t="n">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="I12" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>763</v>
+        <v>963</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P12" t="n">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="Q12" t="n">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="R12" t="n">
         <v>1</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
-        <v>1093</v>
+        <v>1386</v>
       </c>
       <c r="W12" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="X12" t="n">
-        <v>1123</v>
+        <v>1435</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>1123</v>
+        <v>1435</v>
       </c>
       <c r="AA12" t="n">
-        <v>1067</v>
+        <v>2412</v>
       </c>
       <c r="AB12" t="n">
-        <v>2190</v>
+        <v>3847</v>
       </c>
       <c r="AC12" t="n">
-        <v>51.28</v>
+        <v>37.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>塘岐村、后沃村</t>
+          <t>金水里</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F13" t="n">
         <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H13" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I13" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K13" t="n">
-        <v>427</v>
+        <v>565</v>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P13" t="n">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="Q13" t="n">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1408,399 +1408,399 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>614</v>
+        <v>861</v>
       </c>
       <c r="W13" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="X13" t="n">
-        <v>629</v>
+        <v>887</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>629</v>
+        <v>887</v>
       </c>
       <c r="AA13" t="n">
-        <v>592</v>
+        <v>1272</v>
       </c>
       <c r="AB13" t="n">
-        <v>1221</v>
+        <v>2159</v>
       </c>
       <c r="AC13" t="n">
-        <v>51.52</v>
+        <v>41.08</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>橋仔村、芹壁村、坂里村、白沙村</t>
+          <t>珠沙里</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E14" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="H14" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I14" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>336</v>
+        <v>683</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
         <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P14" t="n">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="Q14" t="n">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
-        <v>479</v>
+        <v>1029</v>
       </c>
       <c r="W14" t="n">
+        <v>25</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1054</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1054</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1734</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>2788</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>37.8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>賢庵里</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="n">
+        <v>54</v>
+      </c>
+      <c r="F15" t="n">
+        <v>10</v>
+      </c>
+      <c r="G15" t="n">
+        <v>39</v>
+      </c>
+      <c r="H15" t="n">
+        <v>101</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1158</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="n">
+        <v>22</v>
+      </c>
+      <c r="O15" t="n">
+        <v>5</v>
+      </c>
+      <c r="P15" t="n">
+        <v>183</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>155</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1802</v>
+      </c>
+      <c r="W15" t="n">
+        <v>52</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1854</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1854</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>2742</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>4596</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>40.34</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　金沙鎮</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="n">
+        <v>13</v>
+      </c>
+      <c r="D16" t="n">
+        <v>49</v>
+      </c>
+      <c r="E16" t="n">
+        <v>184</v>
+      </c>
+      <c r="F16" t="n">
+        <v>26</v>
+      </c>
+      <c r="G16" t="n">
+        <v>97</v>
+      </c>
+      <c r="H16" t="n">
+        <v>279</v>
+      </c>
+      <c r="I16" t="n">
+        <v>194</v>
+      </c>
+      <c r="J16" t="n">
+        <v>12</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4914</v>
+      </c>
+      <c r="L16" t="n">
         <v>15</v>
       </c>
-      <c r="X14" t="n">
-        <v>494</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>494</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>475</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>969</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>50.98</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">　莒光鄉</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>21</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" t="n">
-        <v>6</v>
-      </c>
-      <c r="H15" t="n">
-        <v>25</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="M16" t="n">
+        <v>12</v>
+      </c>
+      <c r="N16" t="n">
+        <v>77</v>
+      </c>
+      <c r="O16" t="n">
+        <v>13</v>
+      </c>
+      <c r="P16" t="n">
+        <v>429</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>550</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>8</v>
+      </c>
+      <c r="T16" t="n">
         <v>17</v>
       </c>
-      <c r="J15" t="n">
-        <v>3</v>
-      </c>
-      <c r="K15" t="n">
-        <v>442</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="n">
-        <v>8</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>38</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>52</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1</v>
-      </c>
-      <c r="T15" t="n">
-        <v>5</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2</v>
-      </c>
-      <c r="V15" t="n">
-        <v>624</v>
-      </c>
-      <c r="W15" t="n">
-        <v>15</v>
-      </c>
-      <c r="X15" t="n">
-        <v>639</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>639</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>735</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>1374</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>46.51</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>青帆村、田沃村、西坵村</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>9</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2</v>
-      </c>
-      <c r="H16" t="n">
-        <v>12</v>
-      </c>
-      <c r="I16" t="n">
-        <v>10</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2</v>
-      </c>
-      <c r="K16" t="n">
-        <v>196</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>4</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>18</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1</v>
-      </c>
-      <c r="T16" t="n">
-        <v>3</v>
-      </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="V16" t="n">
-        <v>277</v>
+        <v>6909</v>
       </c>
       <c r="W16" t="n">
-        <v>6</v>
+        <v>279</v>
       </c>
       <c r="X16" t="n">
-        <v>283</v>
+        <v>7188</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>283</v>
+        <v>7188</v>
       </c>
       <c r="AA16" t="n">
-        <v>357</v>
+        <v>11148</v>
       </c>
       <c r="AB16" t="n">
-        <v>640</v>
+        <v>18336</v>
       </c>
       <c r="AC16" t="n">
-        <v>44.22</v>
+        <v>39.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>福正村、大坪村</t>
+          <t>汶沙里</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E17" t="n">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
+        <v>28</v>
+      </c>
+      <c r="H17" t="n">
+        <v>83</v>
+      </c>
+      <c r="I17" t="n">
+        <v>56</v>
+      </c>
+      <c r="J17" t="n">
+        <v>6</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1380</v>
+      </c>
+      <c r="L17" t="n">
+        <v>7</v>
+      </c>
+      <c r="M17" t="n">
         <v>4</v>
       </c>
-      <c r="H17" t="n">
-        <v>13</v>
-      </c>
-      <c r="I17" t="n">
-        <v>7</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>246</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
       <c r="N17" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P17" t="n">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="Q17" t="n">
-        <v>34</v>
+        <v>177</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
-        <v>347</v>
+        <v>2012</v>
       </c>
       <c r="W17" t="n">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="X17" t="n">
-        <v>356</v>
+        <v>2086</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>356</v>
+        <v>2086</v>
       </c>
       <c r="AA17" t="n">
-        <v>378</v>
+        <v>3039</v>
       </c>
       <c r="AB17" t="n">
-        <v>734</v>
+        <v>5125</v>
       </c>
       <c r="AC17" t="n">
-        <v>48.5</v>
+        <v>40.7</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">　東引鄉</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>三山里</t>
+        </is>
+      </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
@@ -1808,168 +1808,2838 @@
         <v>4</v>
       </c>
       <c r="E18" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H18" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I18" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>446</v>
+        <v>501</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="Q18" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
-        <v>660</v>
+        <v>698</v>
       </c>
       <c r="W18" t="n">
         <v>22</v>
       </c>
       <c r="X18" t="n">
-        <v>682</v>
+        <v>720</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>682</v>
+        <v>720</v>
       </c>
       <c r="AA18" t="n">
-        <v>437</v>
+        <v>1186</v>
       </c>
       <c r="AB18" t="n">
-        <v>1119</v>
+        <v>1906</v>
       </c>
       <c r="AC18" t="n">
-        <v>60.95</v>
+        <v>37.78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
-          <t>中柳村、樂華村</t>
+          <t>大洋里</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="n">
+        <v>7</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5</v>
+      </c>
+      <c r="H19" t="n">
+        <v>18</v>
+      </c>
+      <c r="I19" t="n">
+        <v>13</v>
+      </c>
+      <c r="J19" t="n">
         <v>4</v>
       </c>
-      <c r="E19" t="n">
-        <v>31</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2</v>
-      </c>
-      <c r="G19" t="n">
-        <v>8</v>
-      </c>
-      <c r="H19" t="n">
-        <v>28</v>
-      </c>
-      <c r="I19" t="n">
-        <v>21</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
       <c r="K19" t="n">
-        <v>446</v>
+        <v>314</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
         <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="Q19" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
-        <v>660</v>
+        <v>441</v>
       </c>
       <c r="W19" t="n">
         <v>22</v>
       </c>
       <c r="X19" t="n">
-        <v>682</v>
+        <v>463</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>682</v>
+        <v>463</v>
       </c>
       <c r="AA19" t="n">
-        <v>437</v>
+        <v>656</v>
       </c>
       <c r="AB19" t="n">
         <v>1119</v>
       </c>
       <c r="AC19" t="n">
-        <v>60.95</v>
+        <v>41.38</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>光前里</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" t="n">
+        <v>21</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>18</v>
+      </c>
+      <c r="H20" t="n">
+        <v>38</v>
+      </c>
+      <c r="I20" t="n">
+        <v>26</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>624</v>
+      </c>
+      <c r="L20" t="n">
+        <v>4</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O20" t="n">
+        <v>4</v>
+      </c>
+      <c r="P20" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>75</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>887</v>
+      </c>
+      <c r="W20" t="n">
+        <v>42</v>
+      </c>
+      <c r="X20" t="n">
+        <v>929</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>929</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1298</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>2227</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>41.72</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>何斗里</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4</v>
+      </c>
+      <c r="E21" t="n">
+        <v>16</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" t="n">
+        <v>8</v>
+      </c>
+      <c r="H21" t="n">
+        <v>24</v>
+      </c>
+      <c r="I21" t="n">
+        <v>21</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>527</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>12</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>55</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>722</v>
+      </c>
+      <c r="W21" t="n">
+        <v>37</v>
+      </c>
+      <c r="X21" t="n">
+        <v>759</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>759</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1212</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1971</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>38.51</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>西園里</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4</v>
+      </c>
+      <c r="E22" t="n">
+        <v>12</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>7</v>
+      </c>
+      <c r="H22" t="n">
+        <v>15</v>
+      </c>
+      <c r="I22" t="n">
+        <v>19</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>391</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>4</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>35</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>519</v>
+      </c>
+      <c r="W22" t="n">
+        <v>16</v>
+      </c>
+      <c r="X22" t="n">
+        <v>535</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>535</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>992</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1527</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>35.04</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>官嶼里</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>22</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>16</v>
+      </c>
+      <c r="H23" t="n">
+        <v>31</v>
+      </c>
+      <c r="I23" t="n">
+        <v>14</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2</v>
+      </c>
+      <c r="K23" t="n">
+        <v>568</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2</v>
+      </c>
+      <c r="O23" t="n">
+        <v>4</v>
+      </c>
+      <c r="P23" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>51</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>4</v>
+      </c>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>758</v>
+      </c>
+      <c r="W23" t="n">
+        <v>29</v>
+      </c>
+      <c r="X23" t="n">
+        <v>787</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>787</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1371</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>2158</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>36.47</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>浦山里</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>8</v>
+      </c>
+      <c r="E24" t="n">
+        <v>26</v>
+      </c>
+      <c r="F24" t="n">
+        <v>6</v>
+      </c>
+      <c r="G24" t="n">
+        <v>6</v>
+      </c>
+      <c r="H24" t="n">
+        <v>36</v>
+      </c>
+      <c r="I24" t="n">
+        <v>29</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>609</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="n">
+        <v>12</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>60</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>872</v>
+      </c>
+      <c r="W24" t="n">
+        <v>37</v>
+      </c>
+      <c r="X24" t="n">
+        <v>909</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>909</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1394</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>2303</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>39.47</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　金湖鎮</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>8</v>
+      </c>
+      <c r="D25" t="n">
+        <v>56</v>
+      </c>
+      <c r="E25" t="n">
+        <v>332</v>
+      </c>
+      <c r="F25" t="n">
+        <v>23</v>
+      </c>
+      <c r="G25" t="n">
+        <v>165</v>
+      </c>
+      <c r="H25" t="n">
+        <v>510</v>
+      </c>
+      <c r="I25" t="n">
+        <v>282</v>
+      </c>
+      <c r="J25" t="n">
+        <v>15</v>
+      </c>
+      <c r="K25" t="n">
+        <v>6933</v>
+      </c>
+      <c r="L25" t="n">
+        <v>20</v>
+      </c>
+      <c r="M25" t="n">
+        <v>17</v>
+      </c>
+      <c r="N25" t="n">
+        <v>178</v>
+      </c>
+      <c r="O25" t="n">
+        <v>52</v>
+      </c>
+      <c r="P25" t="n">
+        <v>823</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1075</v>
+      </c>
+      <c r="R25" t="n">
+        <v>7</v>
+      </c>
+      <c r="S25" t="n">
+        <v>7</v>
+      </c>
+      <c r="T25" t="n">
+        <v>23</v>
+      </c>
+      <c r="U25" t="n">
+        <v>20</v>
+      </c>
+      <c r="V25" t="n">
+        <v>10546</v>
+      </c>
+      <c r="W25" t="n">
+        <v>354</v>
+      </c>
+      <c r="X25" t="n">
+        <v>10900</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>10900</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>14959</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>25859</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>42.15</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>新市里</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>10</v>
+      </c>
+      <c r="E26" t="n">
+        <v>59</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4</v>
+      </c>
+      <c r="G26" t="n">
+        <v>31</v>
+      </c>
+      <c r="H26" t="n">
+        <v>96</v>
+      </c>
+      <c r="I26" t="n">
+        <v>49</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1231</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="n">
+        <v>27</v>
+      </c>
+      <c r="O26" t="n">
+        <v>21</v>
+      </c>
+      <c r="P26" t="n">
+        <v>125</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>191</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="n">
+        <v>4</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1859</v>
+      </c>
+      <c r="W26" t="n">
+        <v>61</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1920</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1920</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>2341</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>4261</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>45.06</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>山外里</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>8</v>
+      </c>
+      <c r="E27" t="n">
+        <v>46</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>17</v>
+      </c>
+      <c r="H27" t="n">
+        <v>79</v>
+      </c>
+      <c r="I27" t="n">
+        <v>33</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>802</v>
+      </c>
+      <c r="L27" t="n">
+        <v>4</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="n">
+        <v>22</v>
+      </c>
+      <c r="O27" t="n">
+        <v>3</v>
+      </c>
+      <c r="P27" t="n">
+        <v>94</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>141</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>6</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1263</v>
+      </c>
+      <c r="W27" t="n">
+        <v>82</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1345</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1345</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1848</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>3193</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>42.12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>正義里</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>8</v>
+      </c>
+      <c r="E28" t="n">
+        <v>21</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4</v>
+      </c>
+      <c r="G28" t="n">
+        <v>15</v>
+      </c>
+      <c r="H28" t="n">
+        <v>44</v>
+      </c>
+      <c r="I28" t="n">
+        <v>28</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2</v>
+      </c>
+      <c r="K28" t="n">
+        <v>667</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="n">
+        <v>18</v>
+      </c>
+      <c r="O28" t="n">
+        <v>3</v>
+      </c>
+      <c r="P28" t="n">
+        <v>75</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>87</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>982</v>
+      </c>
+      <c r="W28" t="n">
+        <v>35</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1017</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1017</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1573</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>2590</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>39.27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>料羅里</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" t="n">
+        <v>30</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" t="n">
+        <v>9</v>
+      </c>
+      <c r="H29" t="n">
+        <v>49</v>
+      </c>
+      <c r="I29" t="n">
+        <v>25</v>
+      </c>
+      <c r="J29" t="n">
+        <v>5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>521</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="n">
+        <v>14</v>
+      </c>
+      <c r="O29" t="n">
+        <v>3</v>
+      </c>
+      <c r="P29" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>73</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>790</v>
+      </c>
+      <c r="W29" t="n">
+        <v>23</v>
+      </c>
+      <c r="X29" t="n">
+        <v>813</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>813</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1173</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1986</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>40.94</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>瓊林里</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" t="n">
+        <v>7</v>
+      </c>
+      <c r="E30" t="n">
+        <v>28</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>12</v>
+      </c>
+      <c r="H30" t="n">
+        <v>45</v>
+      </c>
+      <c r="I30" t="n">
+        <v>47</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>879</v>
+      </c>
+      <c r="L30" t="n">
+        <v>4</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="n">
+        <v>13</v>
+      </c>
+      <c r="O30" t="n">
+        <v>3</v>
+      </c>
+      <c r="P30" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>94</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="n">
+        <v>4</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1205</v>
+      </c>
+      <c r="W30" t="n">
+        <v>30</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1235</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1235</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>1838</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>3073</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>40.19</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>新湖里</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>3</v>
+      </c>
+      <c r="D31" t="n">
+        <v>15</v>
+      </c>
+      <c r="E31" t="n">
+        <v>116</v>
+      </c>
+      <c r="F31" t="n">
+        <v>9</v>
+      </c>
+      <c r="G31" t="n">
+        <v>72</v>
+      </c>
+      <c r="H31" t="n">
+        <v>151</v>
+      </c>
+      <c r="I31" t="n">
+        <v>77</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1992</v>
+      </c>
+      <c r="L31" t="n">
+        <v>8</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="n">
+        <v>67</v>
+      </c>
+      <c r="O31" t="n">
+        <v>16</v>
+      </c>
+      <c r="P31" t="n">
+        <v>351</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>390</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2</v>
+      </c>
+      <c r="T31" t="n">
+        <v>9</v>
+      </c>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>3289</v>
+      </c>
+      <c r="W31" t="n">
+        <v>75</v>
+      </c>
+      <c r="X31" t="n">
+        <v>3364</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>3364</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>4304</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>7668</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>43.87</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>溪湖里</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4</v>
+      </c>
+      <c r="E32" t="n">
+        <v>10</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5</v>
+      </c>
+      <c r="H32" t="n">
+        <v>14</v>
+      </c>
+      <c r="I32" t="n">
+        <v>13</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>364</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>10</v>
+      </c>
+      <c r="O32" t="n">
+        <v>3</v>
+      </c>
+      <c r="P32" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>43</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>5</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>503</v>
+      </c>
+      <c r="W32" t="n">
+        <v>25</v>
+      </c>
+      <c r="X32" t="n">
+        <v>528</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>528</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>937</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>1465</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>36.04</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>蓮庵里</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>22</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4</v>
+      </c>
+      <c r="H33" t="n">
+        <v>32</v>
+      </c>
+      <c r="I33" t="n">
+        <v>10</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>477</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="n">
+        <v>7</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>56</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1</v>
+      </c>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>655</v>
+      </c>
+      <c r="W33" t="n">
+        <v>23</v>
+      </c>
+      <c r="X33" t="n">
+        <v>678</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>678</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>945</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1623</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>41.77</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　金寧鄉</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="n">
+        <v>66</v>
+      </c>
+      <c r="E34" t="n">
+        <v>305</v>
+      </c>
+      <c r="F34" t="n">
+        <v>41</v>
+      </c>
+      <c r="G34" t="n">
+        <v>278</v>
+      </c>
+      <c r="H34" t="n">
+        <v>940</v>
+      </c>
+      <c r="I34" t="n">
+        <v>264</v>
+      </c>
+      <c r="J34" t="n">
+        <v>22</v>
+      </c>
+      <c r="K34" t="n">
+        <v>6479</v>
+      </c>
+      <c r="L34" t="n">
+        <v>21</v>
+      </c>
+      <c r="M34" t="n">
+        <v>11</v>
+      </c>
+      <c r="N34" t="n">
+        <v>193</v>
+      </c>
+      <c r="O34" t="n">
+        <v>26</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1115</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1061</v>
+      </c>
+      <c r="R34" t="n">
+        <v>10</v>
+      </c>
+      <c r="S34" t="n">
+        <v>6</v>
+      </c>
+      <c r="T34" t="n">
+        <v>35</v>
+      </c>
+      <c r="U34" t="n">
+        <v>22</v>
+      </c>
+      <c r="V34" t="n">
+        <v>10910</v>
+      </c>
+      <c r="W34" t="n">
+        <v>336</v>
+      </c>
+      <c r="X34" t="n">
+        <v>11246</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>11246</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>16241</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>27487</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>40.91</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>古寧村</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>8</v>
+      </c>
+      <c r="E35" t="n">
+        <v>22</v>
+      </c>
+      <c r="F35" t="n">
+        <v>4</v>
+      </c>
+      <c r="G35" t="n">
+        <v>20</v>
+      </c>
+      <c r="H35" t="n">
+        <v>41</v>
+      </c>
+      <c r="I35" t="n">
+        <v>33</v>
+      </c>
+      <c r="J35" t="n">
+        <v>6</v>
+      </c>
+      <c r="K35" t="n">
+        <v>759</v>
+      </c>
+      <c r="L35" t="n">
+        <v>5</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="n">
+        <v>30</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" t="n">
+        <v>75</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>68</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="n">
+        <v>6</v>
+      </c>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1088</v>
+      </c>
+      <c r="W35" t="n">
+        <v>39</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1127</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1127</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>2118</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>3245</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>34.73</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>安美村</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>12</v>
+      </c>
+      <c r="E36" t="n">
+        <v>51</v>
+      </c>
+      <c r="F36" t="n">
+        <v>5</v>
+      </c>
+      <c r="G36" t="n">
+        <v>39</v>
+      </c>
+      <c r="H36" t="n">
+        <v>105</v>
+      </c>
+      <c r="I36" t="n">
+        <v>38</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1160</v>
+      </c>
+      <c r="L36" t="n">
+        <v>5</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="n">
+        <v>33</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P36" t="n">
+        <v>177</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>150</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="n">
+        <v>4</v>
+      </c>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1792</v>
+      </c>
+      <c r="W36" t="n">
+        <v>86</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1878</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1878</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>2918</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>4796</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>39.16</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>后盤村</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" t="n">
+        <v>9</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>6</v>
+      </c>
+      <c r="H37" t="n">
+        <v>26</v>
+      </c>
+      <c r="I37" t="n">
+        <v>17</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>396</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="n">
+        <v>5</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1</v>
+      </c>
+      <c r="P37" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>35</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>536</v>
+      </c>
+      <c r="W37" t="n">
+        <v>26</v>
+      </c>
+      <c r="X37" t="n">
+        <v>562</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>562</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>981</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>1543</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>36.42</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>湖埔村</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" t="n">
+        <v>15</v>
+      </c>
+      <c r="E38" t="n">
+        <v>103</v>
+      </c>
+      <c r="F38" t="n">
+        <v>12</v>
+      </c>
+      <c r="G38" t="n">
+        <v>97</v>
+      </c>
+      <c r="H38" t="n">
+        <v>314</v>
+      </c>
+      <c r="I38" t="n">
+        <v>73</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1595</v>
+      </c>
+      <c r="L38" t="n">
+        <v>4</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>50</v>
+      </c>
+      <c r="O38" t="n">
+        <v>10</v>
+      </c>
+      <c r="P38" t="n">
+        <v>312</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>354</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" t="n">
+        <v>14</v>
+      </c>
+      <c r="U38" t="n">
+        <v>7</v>
+      </c>
+      <c r="V38" t="n">
+        <v>2968</v>
+      </c>
+      <c r="W38" t="n">
+        <v>59</v>
+      </c>
+      <c r="X38" t="n">
+        <v>3027</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>3027</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>3796</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>6823</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>44.36</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>榜林村</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>5</v>
+      </c>
+      <c r="D39" t="n">
+        <v>14</v>
+      </c>
+      <c r="E39" t="n">
+        <v>56</v>
+      </c>
+      <c r="F39" t="n">
+        <v>8</v>
+      </c>
+      <c r="G39" t="n">
+        <v>36</v>
+      </c>
+      <c r="H39" t="n">
+        <v>116</v>
+      </c>
+      <c r="I39" t="n">
+        <v>44</v>
+      </c>
+      <c r="J39" t="n">
+        <v>4</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1259</v>
+      </c>
+      <c r="L39" t="n">
+        <v>3</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="n">
+        <v>30</v>
+      </c>
+      <c r="O39" t="n">
+        <v>7</v>
+      </c>
+      <c r="P39" t="n">
+        <v>178</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>154</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="n">
+        <v>4</v>
+      </c>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1930</v>
+      </c>
+      <c r="W39" t="n">
+        <v>67</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1997</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1997</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>3088</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>5085</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>39.27</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>盤山村</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>4</v>
+      </c>
+      <c r="D40" t="n">
+        <v>14</v>
+      </c>
+      <c r="E40" t="n">
+        <v>64</v>
+      </c>
+      <c r="F40" t="n">
+        <v>12</v>
+      </c>
+      <c r="G40" t="n">
+        <v>80</v>
+      </c>
+      <c r="H40" t="n">
+        <v>338</v>
+      </c>
+      <c r="I40" t="n">
+        <v>59</v>
+      </c>
+      <c r="J40" t="n">
+        <v>7</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1310</v>
+      </c>
+      <c r="L40" t="n">
+        <v>3</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="n">
+        <v>45</v>
+      </c>
+      <c r="O40" t="n">
+        <v>6</v>
+      </c>
+      <c r="P40" t="n">
+        <v>338</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>300</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2</v>
+      </c>
+      <c r="T40" t="n">
+        <v>7</v>
+      </c>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>2596</v>
+      </c>
+      <c r="W40" t="n">
+        <v>59</v>
+      </c>
+      <c r="X40" t="n">
+        <v>2655</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>2655</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>3340</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>5995</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>44.29</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　烈嶼鄉</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="n">
+        <v>4</v>
+      </c>
+      <c r="D41" t="n">
+        <v>26</v>
+      </c>
+      <c r="E41" t="n">
+        <v>87</v>
+      </c>
+      <c r="F41" t="n">
+        <v>16</v>
+      </c>
+      <c r="G41" t="n">
+        <v>42</v>
+      </c>
+      <c r="H41" t="n">
+        <v>138</v>
+      </c>
+      <c r="I41" t="n">
+        <v>101</v>
+      </c>
+      <c r="J41" t="n">
+        <v>4</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2612</v>
+      </c>
+      <c r="L41" t="n">
+        <v>5</v>
+      </c>
+      <c r="M41" t="n">
+        <v>6</v>
+      </c>
+      <c r="N41" t="n">
+        <v>49</v>
+      </c>
+      <c r="O41" t="n">
+        <v>6</v>
+      </c>
+      <c r="P41" t="n">
+        <v>261</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>234</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2</v>
+      </c>
+      <c r="T41" t="n">
+        <v>7</v>
+      </c>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>3610</v>
+      </c>
+      <c r="W41" t="n">
+        <v>112</v>
+      </c>
+      <c r="X41" t="n">
+        <v>3722</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>3722</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>7698</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>11420</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>32.59</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>上岐村</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>6</v>
+      </c>
+      <c r="E42" t="n">
+        <v>16</v>
+      </c>
+      <c r="F42" t="n">
+        <v>10</v>
+      </c>
+      <c r="G42" t="n">
+        <v>10</v>
+      </c>
+      <c r="H42" t="n">
+        <v>25</v>
+      </c>
+      <c r="I42" t="n">
+        <v>30</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>653</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>8</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1</v>
+      </c>
+      <c r="P42" t="n">
+        <v>71</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>51</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>888</v>
+      </c>
+      <c r="W42" t="n">
+        <v>20</v>
+      </c>
+      <c r="X42" t="n">
+        <v>908</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>908</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>1864</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>2772</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>32.76</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>上林村</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" t="n">
+        <v>12</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>5</v>
+      </c>
+      <c r="H43" t="n">
+        <v>18</v>
+      </c>
+      <c r="I43" t="n">
+        <v>8</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>298</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="n">
+        <v>4</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>26</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>2</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>400</v>
+      </c>
+      <c r="W43" t="n">
+        <v>22</v>
+      </c>
+      <c r="X43" t="n">
+        <v>422</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>422</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>966</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>1388</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>西口村</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>6</v>
+      </c>
+      <c r="E44" t="n">
+        <v>14</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2</v>
+      </c>
+      <c r="G44" t="n">
+        <v>7</v>
+      </c>
+      <c r="H44" t="n">
+        <v>37</v>
+      </c>
+      <c r="I44" t="n">
+        <v>21</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>452</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="n">
+        <v>15</v>
+      </c>
+      <c r="O44" t="n">
+        <v>2</v>
+      </c>
+      <c r="P44" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>42</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>666</v>
+      </c>
+      <c r="W44" t="n">
+        <v>27</v>
+      </c>
+      <c r="X44" t="n">
+        <v>693</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>693</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>1671</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>2364</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>29.31</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>林湖村</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" t="n">
+        <v>6</v>
+      </c>
+      <c r="E45" t="n">
+        <v>34</v>
+      </c>
+      <c r="F45" t="n">
+        <v>4</v>
+      </c>
+      <c r="G45" t="n">
+        <v>11</v>
+      </c>
+      <c r="H45" t="n">
+        <v>37</v>
+      </c>
+      <c r="I45" t="n">
+        <v>36</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2</v>
+      </c>
+      <c r="K45" t="n">
+        <v>864</v>
+      </c>
+      <c r="L45" t="n">
+        <v>3</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="n">
+        <v>18</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>74</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>78</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>2</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1175</v>
+      </c>
+      <c r="W45" t="n">
+        <v>30</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1205</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1205</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>2103</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>3308</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>36.43</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>黃埔村</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>6</v>
+      </c>
+      <c r="E46" t="n">
+        <v>11</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>9</v>
+      </c>
+      <c r="H46" t="n">
+        <v>21</v>
+      </c>
+      <c r="I46" t="n">
+        <v>6</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>345</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>4</v>
+      </c>
+      <c r="O46" t="n">
+        <v>2</v>
+      </c>
+      <c r="P46" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>37</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>481</v>
+      </c>
+      <c r="W46" t="n">
+        <v>13</v>
+      </c>
+      <c r="X46" t="n">
+        <v>494</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>494</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>1094</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>1588</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>31.11</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　烏坵鄉</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>91</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>6</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>112</v>
+      </c>
+      <c r="W47" t="n">
+        <v>2</v>
+      </c>
+      <c r="X47" t="n">
+        <v>114</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>114</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>427</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>541</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>21.07</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>大坵村</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>59</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>69</v>
+      </c>
+      <c r="W48" t="n">
+        <v>2</v>
+      </c>
+      <c r="X48" t="n">
+        <v>71</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>71</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>193</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>264</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>26.89</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>小坵村</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>32</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>43</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>43</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>43</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>234</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>277</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>15.52</v>
       </c>
     </row>
   </sheetData>
